--- a/repos-list.xlsx
+++ b/repos-list.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -658,7 +658,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>status-changes</t>
+          <t>firm-status-change</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://github.com/imahdimir/d-status-changes</t>
+          <t>https://github.com/imahdimir/d-firm-status-change</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://raw.github.com/imahdimir/d-status-changes/main/META.json</t>
+          <t>https://raw.github.com/imahdimir/d-firm-status-change/main/META.json</t>
         </is>
       </c>
     </row>
@@ -702,7 +702,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TSE-Working-Days</t>
+          <t>TSE-working-days</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,12 +712,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://github.com/imahdimir/d-TSE-Working-Days</t>
+          <t>https://github.com/imahdimir/d-TSE-working-days</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://raw.github.com/imahdimir/d-TSE-Working-Days/main/META.json</t>
+          <t>https://raw.github.com/imahdimir/d-TSE-working-days/main/META.json</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IPO-Date</t>
+          <t>firm-IPO-date</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -756,12 +756,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://github.com/imahdimir/d-IPO-Date</t>
+          <t>https://github.com/imahdimir/d-firm-IPO-date</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://raw.github.com/imahdimir/d-IPO-Date/main/META.json</t>
+          <t>https://raw.github.com/imahdimir/d-firm-IPO-date/main/META.json</t>
         </is>
       </c>
     </row>
@@ -779,6 +779,57 @@
       <c r="D15" t="inlineStr">
         <is>
           <t>https://raw.github.com/imahdimir/d-firms-adjusted-Prices-1-OHLCL-daily/main/META.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>firm-possible-trade-spells</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://github.com/imahdimir/d-firm-possible-trade-spells</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://raw.github.com/imahdimir/d-firm-possible-trade-spells/main/META.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>firm-open-duration-daily</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://github.com/imahdimir/d-firm-open-duration-daily</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://raw.github.com/imahdimir/d-firm-open-duration-daily/main/META.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>tse_ir-industry-subIndustry</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://github.com/imahdimir/d-tse_ir-industry-subIndustry</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://raw.github.com/imahdimir/d-tse_ir-industry-subIndustry/main/META.json</t>
         </is>
       </c>
     </row>

--- a/repos-list.xlsx
+++ b/repos-list.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>**TSETMC_ID** to **Ticker** map</t>
+          <t>**TSETMC ID** to **Ticker** map</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -514,7 +514,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Unique Firm Tickers Listed On TSETMC</t>
+          <t>***Unique*** **Firm Tickers** Listed On TSETMC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">

--- a/repos-list.xlsx
+++ b/repos-list.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TSE-Overall-Index</t>
+          <t>TSE-Overall-Index-TEDPIX</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://github.com/imahdimir/d-TSE-Overall-Index</t>
+          <t>https://github.com/imahdimir/d-TSE-Overall-Index-TEDPIX</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://raw.github.com/imahdimir/d-TSE-Overall-Index/main/META.json</t>
+          <t>https://raw.github.com/imahdimir/d-TSE-Overall-Index-TEDPIX/main/META.json</t>
         </is>
       </c>
     </row>
@@ -830,6 +830,40 @@
       <c r="D18" t="inlineStr">
         <is>
           <t>https://raw.github.com/imahdimir/d-tse_ir-industry-subIndustry/main/META.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>firm-ISIC-in-codal</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://github.com/imahdimir/d-firm-ISIC-in-codal</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://raw.github.com/imahdimir/d-firm-ISIC-in-codal/main/META.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>USD-IRR-monthly</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://github.com/imahdimir/d-USD-IRR-monthly</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://raw.github.com/imahdimir/d-USD-IRR-monthly/main/META.json</t>
         </is>
       </c>
     </row>
